--- a/テーブル計算用.xlsx
+++ b/テーブル計算用.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2775" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2775"/>
   </bookViews>
   <sheets>
     <sheet name="タイヤ" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>角度</t>
     <rPh sb="0" eb="2">
@@ -264,6 +264,10 @@
   </si>
   <si>
     <t>[m]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -324,13 +328,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -631,22 +635,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="2" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="J2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
@@ -655,7 +659,7 @@
       <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>8</v>
       </c>
       <c r="F3" t="s">
@@ -664,7 +668,7 @@
       <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>7</v>
       </c>
       <c r="I3" s="1"/>
@@ -674,8 +678,8 @@
       <c r="K3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="4">
-        <v>28</v>
+      <c r="L3" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.15">
@@ -685,7 +689,7 @@
       <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>6</v>
       </c>
       <c r="F4" t="s">
@@ -694,7 +698,7 @@
       <c r="G4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>14</v>
       </c>
       <c r="J4" t="s">
@@ -703,9 +707,9 @@
       <c r="K4" t="s">
         <v>13</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="e">
         <f>L3/2</f>
-        <v>14</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.15">
@@ -726,8 +730,8 @@
         <v>10</v>
       </c>
       <c r="H5">
-        <f>H4/H3</f>
-        <v>2</v>
+        <f>H3/H4</f>
+        <v>0.5</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -735,9 +739,9 @@
       <c r="K5" t="s">
         <v>14</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="e">
         <f>L4/100</f>
-        <v>0.14000000000000001</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.15">
@@ -749,7 +753,7 @@
       </c>
       <c r="H6">
         <f>H5*D5</f>
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
         <v>16</v>
@@ -757,9 +761,9 @@
       <c r="K6" t="s">
         <v>18</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="e">
         <f>H6/L5</f>
-        <v>685.71428571428567</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.15">
@@ -771,7 +775,7 @@
       </c>
       <c r="H7">
         <f>LOG(H6,2)</f>
-        <v>6.5849625007211561</v>
+        <v>4.584962500721157</v>
       </c>
       <c r="J7" t="s">
         <v>25</v>
@@ -779,9 +783,9 @@
       <c r="K7" t="s">
         <v>26</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="e">
         <f>LOG(L6,2)</f>
-        <v>9.4214637684382776</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -799,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -904,37 +908,37 @@
         <f>C3*2*PI()</f>
         <v>0.50265482457436694</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="e">
         <f>タイヤ!$L$6</f>
-        <v>685.71428571428567</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F3">
         <f>B3/180*PI()</f>
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="e">
         <f>E3*SIN(F3)</f>
-        <v>0</v>
-      </c>
-      <c r="H3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H3" t="e">
         <f>E3*COS(F3)</f>
-        <v>685.71428571428567</v>
-      </c>
-      <c r="I3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I3" t="e">
         <f>D3*E3</f>
-        <v>344.67759399385159</v>
-      </c>
-      <c r="J3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J3" t="e">
         <f>INT(2^16*G3)</f>
-        <v>0</v>
-      </c>
-      <c r="K3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K3" t="e">
         <f t="shared" ref="K3:L5" si="0">INT(2^16*H3)</f>
-        <v>44938971</v>
-      </c>
-      <c r="L3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L3" t="e">
         <f t="shared" si="0"/>
-        <v>22588790</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -951,37 +955,37 @@
         <f t="shared" ref="D4:D5" si="1">C4*2*PI()</f>
         <v>0.50265482457436694</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="e">
         <f>タイヤ!$L$6</f>
-        <v>685.71428571428567</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F4">
         <f>B4/180*PI()</f>
         <v>2.0943951023931953</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="e">
         <f t="shared" ref="G4:G5" si="2">E4*SIN(F4)</f>
-        <v>593.84599116647223</v>
-      </c>
-      <c r="H4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H4" t="e">
         <f>E4*COS(F4)</f>
-        <v>-342.85714285714266</v>
-      </c>
-      <c r="I4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I4" t="e">
         <f t="shared" ref="I4:I5" si="3">D4*E4</f>
-        <v>344.67759399385159</v>
-      </c>
-      <c r="J4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J4" t="e">
         <f t="shared" ref="J4:J5" si="4">INT(2^16*G4)</f>
-        <v>38918290</v>
-      </c>
-      <c r="K4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K4" t="e">
         <f t="shared" si="0"/>
-        <v>-22469486</v>
-      </c>
-      <c r="L4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L4" t="e">
         <f t="shared" si="0"/>
-        <v>22588790</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -998,37 +1002,37 @@
         <f t="shared" si="1"/>
         <v>0.50265482457436694</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="e">
         <f>タイヤ!$L$6</f>
-        <v>685.71428571428567</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F5">
         <f>B5/180*PI()</f>
         <v>4.1887902047863905</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="e">
         <f t="shared" si="2"/>
-        <v>-593.845991166472</v>
-      </c>
-      <c r="H5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H5" t="e">
         <f t="shared" ref="H5" si="5">E5*COS(F5)</f>
-        <v>-342.85714285714312</v>
-      </c>
-      <c r="I5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I5" t="e">
         <f t="shared" si="3"/>
-        <v>344.67759399385159</v>
-      </c>
-      <c r="J5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J5" t="e">
         <f t="shared" si="4"/>
-        <v>-38918291</v>
-      </c>
-      <c r="K5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K5" t="e">
         <f t="shared" si="0"/>
-        <v>-22469486</v>
-      </c>
-      <c r="L5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L5" t="e">
         <f t="shared" si="0"/>
-        <v>22588790</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
